--- a/Doku/210_Vorlage_GanttDiagramm.100.xlsx
+++ b/Doku/210_Vorlage_GanttDiagramm.100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>Nr.</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>❷</t>
-  </si>
-  <si>
-    <t>❸❹❺❻❼❽❾❿</t>
   </si>
   <si>
     <t xml:space="preserve">Meilensteine </t>
@@ -152,6 +149,24 @@
   </si>
   <si>
     <t>Alle</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>❸</t>
+  </si>
+  <si>
+    <t>❹</t>
+  </si>
+  <si>
+    <t>❺</t>
+  </si>
+  <si>
+    <t>❻❼❽❾❿</t>
   </si>
 </sst>
 </file>
@@ -574,17 +589,29 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -596,6 +623,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,45 +664,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -958,7 +973,7 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1026,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
@@ -1020,97 +1035,97 @@
         <v>7</v>
       </c>
       <c r="E1" s="40"/>
-      <c r="F1" s="67">
+      <c r="F1" s="63">
         <v>17.059999999999999</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="67">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="63">
         <v>18.059999999999999</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="63">
         <v>19.059999999999999</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="67">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="63">
         <v>23.06</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="67">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="63">
         <v>24.06</v>
       </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="67">
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="63">
         <v>25.06</v>
       </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="67">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="63">
         <v>26.06</v>
       </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="67">
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="63">
         <v>29.06</v>
       </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="67">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="63">
         <v>30.06</v>
       </c>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="67">
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="63">
         <v>1.07</v>
       </c>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="67">
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="63">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="67">
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="63">
         <v>6.07</v>
       </c>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="67">
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="63">
         <v>7.07</v>
       </c>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="67">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="63">
         <v>8.07</v>
       </c>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="69"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="69"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="65"/>
     </row>
     <row r="2" spans="1:65" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -1293,16 +1308,16 @@
       <c r="BM2" s="7"/>
     </row>
     <row r="3" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
@@ -1338,15 +1353,15 @@
       <c r="BM3" s="11"/>
     </row>
     <row r="4" spans="1:65" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
@@ -1407,16 +1422,16 @@
       <c r="BM4" s="14"/>
     </row>
     <row r="5" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="60"/>
+      <c r="B5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="70"/>
       <c r="E5" s="36" t="s">
         <v>3</v>
       </c>
@@ -1454,19 +1469,19 @@
       <c r="BM5" s="18"/>
     </row>
     <row r="6" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="20"/>
       <c r="M6" s="21"/>
       <c r="N6" s="19"/>
@@ -1523,16 +1538,16 @@
       <c r="BM6" s="21"/>
     </row>
     <row r="7" spans="1:65" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+      <c r="A7" s="66">
         <v>3</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="34" t="s">
         <v>3</v>
       </c>
@@ -1569,10 +1584,10 @@
       <c r="BM7" s="11"/>
     </row>
     <row r="8" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="73"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="35" t="s">
         <v>4</v>
       </c>
@@ -1582,8 +1597,8 @@
       <c r="I8" s="14"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="78"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1638,14 +1653,16 @@
       <c r="BM8" s="14"/>
     </row>
     <row r="9" spans="1:65" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+      <c r="A9" s="66">
         <v>4</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="70"/>
       <c r="E9" s="36" t="s">
         <v>3</v>
       </c>
@@ -1683,10 +1700,10 @@
       <c r="BM9" s="18"/>
     </row>
     <row r="10" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="37" t="s">
         <v>4</v>
       </c>
@@ -1752,14 +1769,16 @@
       <c r="BM10" s="21"/>
     </row>
     <row r="11" spans="1:65" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74">
+      <c r="A11" s="66">
         <v>5</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="B11" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="74"/>
       <c r="E11" s="34" t="s">
         <v>3</v>
       </c>
@@ -1801,10 +1820,10 @@
       <c r="BM11" s="11"/>
     </row>
     <row r="12" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="35" t="s">
         <v>4</v>
       </c>
@@ -1870,14 +1889,16 @@
       <c r="BM12" s="14"/>
     </row>
     <row r="13" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+      <c r="A13" s="66">
         <v>6</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="70"/>
       <c r="E13" s="36" t="s">
         <v>3</v>
       </c>
@@ -1917,10 +1938,10 @@
       <c r="BM13" s="18"/>
     </row>
     <row r="14" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="37" t="s">
         <v>4</v>
       </c>
@@ -1986,14 +2007,16 @@
       <c r="BM14" s="21"/>
     </row>
     <row r="15" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+      <c r="A15" s="66">
         <v>7</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="74"/>
       <c r="E15" s="34" t="s">
         <v>3</v>
       </c>
@@ -2035,10 +2058,10 @@
       <c r="BM15" s="11"/>
     </row>
     <row r="16" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="35" t="s">
         <v>4</v>
       </c>
@@ -2104,14 +2127,16 @@
       <c r="BM16" s="14"/>
     </row>
     <row r="17" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
+      <c r="A17" s="66">
         <v>8</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="B17" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="70"/>
       <c r="E17" s="36" t="s">
         <v>3</v>
       </c>
@@ -2149,10 +2174,10 @@
       <c r="BM17" s="18"/>
     </row>
     <row r="18" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="37" t="s">
         <v>4</v>
       </c>
@@ -2218,14 +2243,16 @@
       <c r="BM18" s="21"/>
     </row>
     <row r="19" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+      <c r="A19" s="66">
         <v>9</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="74"/>
       <c r="E19" s="34" t="s">
         <v>3</v>
       </c>
@@ -2265,10 +2292,10 @@
       <c r="BM19" s="11"/>
     </row>
     <row r="20" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="35" t="s">
         <v>4</v>
       </c>
@@ -2334,14 +2361,14 @@
       <c r="BM20" s="14"/>
     </row>
     <row r="21" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
+      <c r="A21" s="66">
         <v>10</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="36" t="s">
         <v>3</v>
       </c>
@@ -2407,10 +2434,10 @@
       <c r="BM21" s="28"/>
     </row>
     <row r="22" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="37" t="s">
         <v>4</v>
       </c>
@@ -2476,23 +2503,23 @@
       <c r="BM22" s="21"/>
     </row>
     <row r="23" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74">
+      <c r="A23" s="66">
         <v>11</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="53"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
       <c r="N23" s="46"/>
@@ -2517,7 +2544,7 @@
       <c r="AE23" s="47"/>
       <c r="AF23" s="47"/>
       <c r="AG23" s="48" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AH23" s="46"/>
       <c r="AI23" s="47"/>
@@ -2534,11 +2561,15 @@
       <c r="AT23" s="46"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="47"/>
-      <c r="AW23" s="48"/>
+      <c r="AW23" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="AX23" s="46"/>
       <c r="AY23" s="47"/>
       <c r="AZ23" s="47"/>
-      <c r="BA23" s="48"/>
+      <c r="BA23" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="BB23" s="46"/>
       <c r="BC23" s="47"/>
       <c r="BD23" s="47"/>
@@ -2546,17 +2577,19 @@
       <c r="BF23" s="46"/>
       <c r="BG23" s="47"/>
       <c r="BH23" s="47"/>
-      <c r="BI23" s="48"/>
+      <c r="BI23" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="BJ23" s="46"/>
       <c r="BK23" s="47"/>
       <c r="BL23" s="47"/>
       <c r="BM23" s="48"/>
     </row>
     <row r="24" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -2620,12 +2653,12 @@
       <c r="BM24" s="52"/>
     </row>
     <row r="25" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
+      <c r="A25" s="66">
         <v>12</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="36"/>
       <c r="F25" s="16"/>
       <c r="I25" s="18"/>
@@ -2659,10 +2692,10 @@
       <c r="BM25" s="18"/>
     </row>
     <row r="26" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="37"/>
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
@@ -2726,14 +2759,14 @@
       <c r="BM26" s="21"/>
     </row>
     <row r="27" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+      <c r="A27" s="66">
         <v>13</v>
       </c>
-      <c r="B27" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="B27" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="34"/>
       <c r="F27" s="9"/>
       <c r="I27" s="11"/>
@@ -2767,17 +2800,17 @@
       <c r="BM27" s="11"/>
     </row>
     <row r="28" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -2836,14 +2869,14 @@
       <c r="BM28" s="14"/>
     </row>
     <row r="29" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+      <c r="A29" s="66">
         <v>14</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="B29" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="36"/>
       <c r="F29" s="16"/>
       <c r="I29" s="18"/>
@@ -2877,10 +2910,10 @@
       <c r="BM29" s="18"/>
     </row>
     <row r="30" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="37" t="s">
         <v>4</v>
       </c>
@@ -2946,14 +2979,14 @@
       <c r="BM30" s="21"/>
     </row>
     <row r="31" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
+      <c r="A31" s="66">
         <v>15</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="B31" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="34"/>
       <c r="F31" s="9"/>
       <c r="I31" s="11"/>
@@ -2987,17 +3020,17 @@
       <c r="BM31" s="11"/>
     </row>
     <row r="32" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -3056,14 +3089,14 @@
       <c r="BM32" s="14"/>
     </row>
     <row r="33" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+      <c r="A33" s="66">
         <v>16</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="B33" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="36"/>
       <c r="F33" s="16"/>
       <c r="I33" s="18"/>
@@ -3097,17 +3130,17 @@
       <c r="BM33" s="18"/>
     </row>
     <row r="34" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -3166,12 +3199,12 @@
       <c r="BM34" s="21"/>
     </row>
     <row r="35" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+      <c r="A35" s="66">
         <v>17</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="34"/>
       <c r="F35" s="9"/>
       <c r="I35" s="11"/>
@@ -3205,10 +3238,10 @@
       <c r="BM35" s="11"/>
     </row>
     <row r="36" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="35"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
@@ -3272,12 +3305,12 @@
       <c r="BM36" s="14"/>
     </row>
     <row r="37" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
+      <c r="A37" s="66">
         <v>18</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="36"/>
       <c r="F37" s="16"/>
       <c r="I37" s="18"/>
@@ -3311,10 +3344,10 @@
       <c r="BM37" s="18"/>
     </row>
     <row r="38" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="37"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
@@ -3378,12 +3411,12 @@
       <c r="BM38" s="21"/>
     </row>
     <row r="39" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="66">
         <v>19</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="34"/>
       <c r="F39" s="9"/>
       <c r="I39" s="11"/>
@@ -3417,10 +3450,10 @@
       <c r="BM39" s="11"/>
     </row>
     <row r="40" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="38"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
@@ -3490,33 +3523,36 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BJ1:BM1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="V1:Y1"/>
@@ -3533,36 +3569,33 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
